--- a/source/files/2020q1-xrp-stats.xlsx
+++ b/source/files/2020q1-xrp-stats.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t xml:space="preserve">This Spreadsheet was compiled from data pulled directly from the XRP ledger using the https://xrp1ntel.com analytics engine built and run by Dev Null Productions</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t xml:space="preserve">Daily Avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Deviation</t>
   </si>
   <si>
     <t xml:space="preserve">Offers</t>
@@ -388,7 +391,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart100.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart113.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -408,7 +411,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Daily Transactions</a:t>
+              <a:t>Weekly Ledgers Closed</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -432,18 +435,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Transactions!$B$15</c:f>
+              <c:f>'Ledgers Closed'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Transactions</c:v>
+                  <c:v>Ledgers Closed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00a933"/>
+              <a:srgbClr val="004586"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -472,563 +475,89 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Transactions!$A$16:$A$106</c:f>
+              <c:f>'Ledgers Closed'!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2020-01-01</c:v>
+                  <c:v>01/06/20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020-01-02</c:v>
+                  <c:v>01/13/20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020-01-03</c:v>
+                  <c:v>01/20/20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020-01-04</c:v>
+                  <c:v>01/27/20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020-01-05</c:v>
+                  <c:v>02/03/20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020-01-06</c:v>
+                  <c:v>02/10/20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2020-01-07</c:v>
+                  <c:v>02/17/20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020-01-08</c:v>
+                  <c:v>02/24/20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020-01-09</c:v>
+                  <c:v>03/02/20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020-01-10</c:v>
+                  <c:v>03/09/20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2020-01-11</c:v>
+                  <c:v>03/16/20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2020-01-12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2020-01-13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2020-01-14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2020-01-15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2020-01-16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2020-01-17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2020-01-18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2020-01-19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2020-01-20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2020-01-21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2020-01-22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2020-01-23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2020-01-24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2020-01-25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2020-01-26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2020-01-27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2020-01-28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2020-01-29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2020-01-30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2020-01-31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2020-02-01</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2020-02-02</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2020-02-03</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2020-02-04</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2020-02-05</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2020-02-06</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2020-02-07</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2020-02-08</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2020-02-09</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2020-02-10</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2020-02-11</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2020-02-12</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2020-02-13</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2020-02-14</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2020-02-15</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2020-02-16</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2020-02-17</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2020-02-18</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2020-02-19</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2020-02-20</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2020-02-21</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2020-02-22</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2020-02-23</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2020-02-24</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2020-02-25</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2020-02-26</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2020-02-27</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2020-02-28</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2020-02-29</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2020-03-01</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2020-03-02</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2020-03-03</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2020-03-04</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2020-03-05</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2020-03-06</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2020-03-07</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2020-03-08</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2020-03-09</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2020-03-10</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2020-03-11</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2020-03-12</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2020-03-13</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2020-03-14</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2020-03-15</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2020-03-16</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2020-03-17</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2020-03-18</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2020-03-19</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2020-03-20</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2020-03-21</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2020-03-22</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2020-03-23</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2020-03-24</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2020-03-25</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2020-03-26</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2020-03-27</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2020-03-28</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2020-03-29</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2020-03-30</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2020-03-31</c:v>
+                  <c:v>03/23/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Transactions!$B$16:$B$106</c:f>
+              <c:f>'Ledgers Closed'!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>966483</c:v>
+                  <c:v>155252</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>946340</c:v>
+                  <c:v>155792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>906016</c:v>
+                  <c:v>156990</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1066544</c:v>
+                  <c:v>157492</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1677839</c:v>
+                  <c:v>155831</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2718592</c:v>
+                  <c:v>158981</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2996525</c:v>
+                  <c:v>161147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1439675</c:v>
+                  <c:v>159340</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1656530</c:v>
+                  <c:v>159820</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1129579</c:v>
+                  <c:v>157354</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>836657</c:v>
+                  <c:v>157032</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>822417</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>822022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>938725</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>962556</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>863197</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>930524</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1065129</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1008329</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>892857</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>879979</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>853354</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>915869</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>880160</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>849540</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>835171</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>864650</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>930312</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>768230</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>885929</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>926993</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>875421</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>930276</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1011197</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1037430</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1001700</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>941620</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>967219</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>777436</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>811667</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>852163</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>881425</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>866249</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>923846</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>867720</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>999414</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>890594</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>929793</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>927331</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1043313</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>885116</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>828082</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>823616</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>867145</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>887244</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>857715</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>966706</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>969216</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>924968</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>853022</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>876212</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>836673</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>853071</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>829501</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>844227</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>846112</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>901199</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>969029</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>971171</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>884190</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>906483</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1248005</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1931360</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>855538</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1005696</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1089757</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>931780</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>925181</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1026625</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1100629</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1008525</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1000386</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>988269</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>941419</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>889117</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>959859</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1005602</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>933819</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>954085</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>901864</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>899087</c:v>
+                  <c:v>159172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,11 +565,838 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="18926881"/>
-        <c:axId val="47351481"/>
+        <c:axId val="26312290"/>
+        <c:axId val="97108724"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="18926881"/>
+        <c:axId val="26312290"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Week</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="MM/DD/YY" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="97108724"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97108724"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Ledgers Closed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26312290"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart114.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Daily Ledgers Closed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ledgers Closed'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ledgers Closed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ledgers Closed'!$A$16:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>2020-01-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-01-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020-01-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020-01-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-01-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-01-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-01-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020-01-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-01-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-01-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-01-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-01-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-01-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-01-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-01-15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-01-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020-01-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020-01-18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020-01-20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-01-21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-01-22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-01-23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-01-24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020-01-25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020-01-26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020-01-27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020-01-28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020-01-29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020-01-30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020-01-31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-02-01</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-02-02</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020-02-03</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-02-04</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-02-05</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020-02-06</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-02-07</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2020-02-08</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2020-02-09</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020-02-10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2020-02-11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2020-02-12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2020-02-13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2020-02-14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2020-02-15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2020-02-16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2020-02-19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2020-02-20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2020-02-21</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2020-02-22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2020-02-23</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2020-02-24</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2020-02-25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2020-02-26</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2020-02-27</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2020-02-28</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2020-02-29</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020-03-01</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020-03-02</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2020-03-03</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2020-03-04</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2020-03-05</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2020-03-06</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2020-03-07</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2020-03-08</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2020-03-09</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2020-03-10</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2020-03-11</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2020-03-12</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2020-03-13</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2020-03-14</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2020-03-15</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2020-03-16</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2020-03-17</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-03-18</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-03-19</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-03-20</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-03-21</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-03-22</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-03-23</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-03-24</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-03-25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-03-26</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-03-27</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-03-28</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-03-29</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-03-30</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-03-31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ledgers Closed'!$B$16:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>22246</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21917</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22049</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22579</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22530</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22609</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22302</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22172</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22242</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22182</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22082</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22203</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22327</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22316</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22402</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22422</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22627</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22499</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22397</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22313</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22180</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22905</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22527</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22470</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22628</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22469</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22428</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22107</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22284</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22205</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22113</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22311</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22383</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22278</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22378</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22862</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22853</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22970</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22595</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23045</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22857</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22805</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22626</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>23190</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23354</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>23375</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22940</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22905</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22932</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22615</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22555</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>22662</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>22932</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22739</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22751</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23098</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23093</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22810</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22769</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>22700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>22599</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22585</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22815</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>22813</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>22221</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>22031</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>22476</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>22414</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22355</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22551</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>22558</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>22494</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22341</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22374</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22358</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>22290</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>22600</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>22830</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22811</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22691</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>23078</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22872</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>23022</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>23190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="59051652"/>
+        <c:axId val="78488553"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="59051652"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,14 +1452,367 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47351481"/>
+        <c:crossAx val="78488553"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47351481"/>
+        <c:axId val="78488553"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Ledgers Closed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59051652"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart115.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Weekly Transactions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Transactions!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transactions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00a933"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Transactions!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2020-01-06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-01-13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020-01-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020-01-27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020-02-24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-03-02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-03-09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-03-16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-03-23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Transactions!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11599975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6590482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6106930</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6181811</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6548269</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6281411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6304396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6335083</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6079812</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7802386</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7082955</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6672170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="36402457"/>
+        <c:axId val="39121374"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="36402457"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Week</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="YYYY\-MM\-DD" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39121374"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39121374"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,7 +1877,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18926881"/>
+        <c:crossAx val="36402457"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1215,7 +1924,834 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart116.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Daily Transactions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Transactions!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transactions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00a933"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Transactions!$A$16:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>2020-01-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-01-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020-01-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020-01-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-01-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-01-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-01-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020-01-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-01-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-01-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-01-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-01-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-01-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-01-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-01-15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-01-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020-01-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020-01-18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020-01-20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-01-21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-01-22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-01-23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-01-24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020-01-25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020-01-26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020-01-27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020-01-28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020-01-29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020-01-30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020-01-31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-02-01</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-02-02</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020-02-03</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-02-04</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-02-05</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020-02-06</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-02-07</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2020-02-08</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2020-02-09</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020-02-10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2020-02-11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2020-02-12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2020-02-13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2020-02-14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2020-02-15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2020-02-16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2020-02-19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2020-02-20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2020-02-21</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2020-02-22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2020-02-23</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2020-02-24</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2020-02-25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2020-02-26</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2020-02-27</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2020-02-28</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2020-02-29</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020-03-01</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020-03-02</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2020-03-03</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2020-03-04</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2020-03-05</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2020-03-06</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2020-03-07</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2020-03-08</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2020-03-09</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2020-03-10</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2020-03-11</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2020-03-12</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2020-03-13</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2020-03-14</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2020-03-15</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2020-03-16</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2020-03-17</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-03-18</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-03-19</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-03-20</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-03-21</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-03-22</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-03-23</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-03-24</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-03-25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-03-26</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-03-27</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-03-28</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-03-29</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-03-30</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-03-31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Transactions!$B$16:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>966483</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>946340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>906016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1066544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1677839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2718592</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2996525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1439675</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1656530</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1129579</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>836657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>822417</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>822022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>938725</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>962556</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>863197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>930524</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1065129</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1008329</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>892857</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>879979</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>853354</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>915869</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>880160</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>849540</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>835171</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>864650</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>930312</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>768230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>885929</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>926993</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>875421</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>930276</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1011197</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1037430</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1001700</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>941620</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>967219</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>777436</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>811667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>852163</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>881425</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>866249</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>923846</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>867720</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>999414</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>890594</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>929793</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>927331</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1043313</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>885116</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>828082</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>823616</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>867145</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>887244</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>857715</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>966706</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>969216</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>924968</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>853022</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>876212</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>836673</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>853071</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>829501</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>844227</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>846112</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>901199</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>969029</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>971171</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>884190</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>906483</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1248005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1931360</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>855538</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1005696</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1089757</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>931780</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>925181</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1026625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1100629</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1008525</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1000386</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>988269</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>941419</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>889117</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>959859</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1005602</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>933819</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>954085</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>901864</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>899087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="91505072"/>
+        <c:axId val="59729323"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="91505072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="YYYY\-MM\-DD" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59729323"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="59729323"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Transactions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91505072"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart117.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1389,11 +2925,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="17917165"/>
-        <c:axId val="71808795"/>
+        <c:axId val="77818295"/>
+        <c:axId val="58847146"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="17917165"/>
+        <c:axId val="77818295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,14 +2985,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71808795"/>
+        <c:crossAx val="58847146"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71808795"/>
+        <c:axId val="58847146"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +3058,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17917165"/>
+        <c:crossAx val="77818295"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1569,7 +3105,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart118.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2217,11 +3753,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="50623089"/>
-        <c:axId val="6859814"/>
+        <c:axId val="88908440"/>
+        <c:axId val="19388729"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50623089"/>
+        <c:axId val="88908440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,14 +3813,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6859814"/>
+        <c:crossAx val="19388729"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6859814"/>
+        <c:axId val="19388729"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2349,7 +3885,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50623089"/>
+        <c:crossAx val="88908440"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2396,7 +3932,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart119.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2571,11 +4107,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="11070629"/>
-        <c:axId val="40200143"/>
+        <c:axId val="60647789"/>
+        <c:axId val="22156491"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="11070629"/>
+        <c:axId val="60647789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2631,14 +4167,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40200143"/>
+        <c:crossAx val="22156491"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40200143"/>
+        <c:axId val="22156491"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +4239,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11070629"/>
+        <c:crossAx val="60647789"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2750,7 +4286,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart120.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3398,11 +4934,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="1885612"/>
-        <c:axId val="5386469"/>
+        <c:axId val="35638407"/>
+        <c:axId val="44483768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1885612"/>
+        <c:axId val="35638407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3458,14 +4994,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5386469"/>
+        <c:crossAx val="44483768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5386469"/>
+        <c:axId val="44483768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,7 +5066,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1885612"/>
+        <c:crossAx val="35638407"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3577,7 +5113,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart121.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3751,11 +5287,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="91318824"/>
-        <c:axId val="62309546"/>
+        <c:axId val="92486852"/>
+        <c:axId val="64053138"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91318824"/>
+        <c:axId val="92486852"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3811,14 +5347,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62309546"/>
+        <c:crossAx val="64053138"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62309546"/>
+        <c:axId val="64053138"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3883,7 +5419,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91318824"/>
+        <c:crossAx val="92486852"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3930,7 +5466,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart122.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4578,11 +6114,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="32187586"/>
-        <c:axId val="61285135"/>
+        <c:axId val="56573388"/>
+        <c:axId val="44501771"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="32187586"/>
+        <c:axId val="56573388"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4638,14 +6174,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61285135"/>
+        <c:crossAx val="44501771"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61285135"/>
+        <c:axId val="44501771"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4710,7 +6246,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32187586"/>
+        <c:crossAx val="56573388"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4757,7 +6293,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart123.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4931,11 +6467,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="14548888"/>
-        <c:axId val="46270369"/>
+        <c:axId val="34905327"/>
+        <c:axId val="70685130"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14548888"/>
+        <c:axId val="34905327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4991,14 +6527,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46270369"/>
+        <c:crossAx val="70685130"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46270369"/>
+        <c:axId val="70685130"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5063,7 +6599,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14548888"/>
+        <c:crossAx val="34905327"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -5110,7 +6646,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart124.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5747,11 +7283,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="41965978"/>
-        <c:axId val="28283354"/>
+        <c:axId val="5208281"/>
+        <c:axId val="12070355"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41965978"/>
+        <c:axId val="5208281"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5807,14 +7343,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28283354"/>
+        <c:crossAx val="12070355"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28283354"/>
+        <c:axId val="12070355"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5879,7 +7415,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41965978"/>
+        <c:crossAx val="5208281"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -5926,7 +7462,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart109.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart125.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6100,11 +7636,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="71727885"/>
-        <c:axId val="65056167"/>
+        <c:axId val="54976458"/>
+        <c:axId val="98683896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71727885"/>
+        <c:axId val="54976458"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6160,14 +7696,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65056167"/>
+        <c:crossAx val="98683896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65056167"/>
+        <c:axId val="98683896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6232,7 +7768,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71727885"/>
+        <c:crossAx val="54976458"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -6279,7 +7815,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart110.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart126.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6927,11 +8463,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="58676092"/>
-        <c:axId val="21138202"/>
+        <c:axId val="89974829"/>
+        <c:axId val="32832726"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58676092"/>
+        <c:axId val="89974829"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6987,14 +8523,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21138202"/>
+        <c:crossAx val="32832726"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21138202"/>
+        <c:axId val="32832726"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7059,7 +8595,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58676092"/>
+        <c:crossAx val="89974829"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -7106,7 +8642,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart127.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7280,11 +8816,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="81840975"/>
-        <c:axId val="46266326"/>
+        <c:axId val="15595442"/>
+        <c:axId val="71660912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81840975"/>
+        <c:axId val="15595442"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7340,14 +8876,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46266326"/>
+        <c:crossAx val="71660912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46266326"/>
+        <c:axId val="71660912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7412,7 +8948,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81840975"/>
+        <c:crossAx val="15595442"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -7459,7 +8995,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart128.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8107,11 +9643,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="15395349"/>
-        <c:axId val="30234945"/>
+        <c:axId val="77171026"/>
+        <c:axId val="90734844"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15395349"/>
+        <c:axId val="77171026"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8167,14 +9703,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30234945"/>
+        <c:crossAx val="90734844"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30234945"/>
+        <c:axId val="90734844"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8239,1540 +9775,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15395349"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart97.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Weekly Ledgers Closed</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ledgers Closed'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ledgers Closed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Ledgers Closed'!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>01/06/20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>01/13/20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>01/20/20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>01/27/20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>02/03/20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>02/10/20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>02/17/20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>02/24/20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>03/02/20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>03/09/20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>03/16/20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>03/23/20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ledgers Closed'!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>155252</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>155792</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>156990</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>157492</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>155831</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>158981</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>161147</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>159340</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>159820</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>157354</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>157032</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>159172</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="55205823"/>
-        <c:axId val="91054589"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="55205823"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Week</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="MM/DD/YY" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="91054589"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="91054589"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Ledgers Closed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="55205823"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart98.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Daily Ledgers Closed</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ledgers Closed'!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ledgers Closed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Ledgers Closed'!$A$16:$A$106</c:f>
-              <c:strCache>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>2020-01-01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020-01-02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2020-01-03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2020-01-04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020-01-05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2020-01-06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2020-01-07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020-01-08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2020-01-09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2020-01-10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020-01-11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020-01-12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2020-01-13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2020-01-14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2020-01-15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2020-01-16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2020-01-17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2020-01-18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2020-01-19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2020-01-20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2020-01-21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2020-01-22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2020-01-23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2020-01-24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2020-01-25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2020-01-26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2020-01-27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2020-01-28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2020-01-29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2020-01-30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2020-01-31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2020-02-01</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2020-02-02</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2020-02-03</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2020-02-04</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2020-02-05</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2020-02-06</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2020-02-07</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2020-02-08</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2020-02-09</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2020-02-10</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2020-02-11</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2020-02-12</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2020-02-13</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2020-02-14</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2020-02-15</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2020-02-16</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2020-02-17</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2020-02-18</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2020-02-19</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2020-02-20</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2020-02-21</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2020-02-22</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2020-02-23</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2020-02-24</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2020-02-25</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2020-02-26</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2020-02-27</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2020-02-28</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2020-02-29</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2020-03-01</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2020-03-02</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2020-03-03</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2020-03-04</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2020-03-05</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2020-03-06</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2020-03-07</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2020-03-08</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2020-03-09</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2020-03-10</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2020-03-11</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2020-03-12</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2020-03-13</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2020-03-14</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2020-03-15</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2020-03-16</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2020-03-17</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2020-03-18</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2020-03-19</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2020-03-20</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2020-03-21</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2020-03-22</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2020-03-23</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2020-03-24</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2020-03-25</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2020-03-26</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2020-03-27</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2020-03-28</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2020-03-29</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2020-03-30</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2020-03-31</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ledgers Closed'!$B$16:$B$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>22246</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22193</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22315</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22162</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22049</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21917</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21883</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22049</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21969</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22325</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22579</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22530</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22609</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22302</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22172</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22242</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22182</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22082</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22203</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22327</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22316</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22402</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22422</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22627</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22499</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>22397</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>22313</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22180</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22905</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>22527</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>22470</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>22628</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>22469</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>22428</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>22107</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>22284</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>22205</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>22113</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>22311</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22383</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>22278</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>22378</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>22862</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>22853</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>22970</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>22595</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>23045</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>22857</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>22805</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>22626</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>23190</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>23354</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>23375</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>22940</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>22905</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>22932</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>22615</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>22555</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>22662</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>22932</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>22739</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>22751</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>23098</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>23093</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>22810</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>22769</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>22700</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>22599</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>22585</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>22815</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>22813</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>22221</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>22031</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>22476</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>22414</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>22355</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>22551</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>22558</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>22494</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>22341</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>22374</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>22358</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>22290</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>22600</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>22830</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>22811</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>22691</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>23078</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>22872</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>23022</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>23190</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="78556543"/>
-        <c:axId val="82917489"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="78556543"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Day</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="YYYY\-MM\-DD" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="82917489"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="82917489"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Ledgers Closed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="78556543"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart99.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Weekly Transactions</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Transactions!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Transactions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00a933"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Transactions!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2020-01-06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020-01-13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2020-01-20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2020-01-27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020-02-03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2020-02-10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2020-02-17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020-02-24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2020-03-02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2020-03-09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020-03-16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020-03-23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Transactions!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>11599975</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6590482</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6106930</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6181811</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6548269</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6281411</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6304396</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6335083</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6079812</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7802386</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7082955</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6672170</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="42470226"/>
-        <c:axId val="36569658"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="42470226"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Week</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="YYYY\-MM\-DD" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="36569658"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="36569658"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Transactions</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="42470226"/>
+        <c:crossAx val="77171026"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -10412,7 +10415,7 @@
   <dimension ref="A1:T106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T5" activeCellId="0" sqref="T5"/>
+      <selection pane="topLeft" activeCell="S4" activeCellId="0" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11309,7 +11312,7 @@
   <dimension ref="A1:U106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P43" activeCellId="0" sqref="P43"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11447,8 +11450,8 @@
         <v>7082955</v>
       </c>
       <c r="S12" s="0" t="n">
-        <f aca="false">S9/T5*100</f>
-        <v>0.363917750108277</v>
+        <f aca="false">S9/U5*100</f>
+        <v>32.7525975097449</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13462,7 +13465,7 @@
   </sheetPr>
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O23" activeCellId="0" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -14361,10 +14364,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R106"/>
+  <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P30" activeCellId="0" sqref="P30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14511,6 +14514,12 @@
       <c r="B15" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="Q15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
@@ -14519,6 +14528,18 @@
       <c r="B16" s="0" t="n">
         <v>40942</v>
       </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">POWER(B16-$R$9, 2)</f>
+        <v>5630056630.4177</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <f aca="false">SQRT(AVERAGE(C16:C106))</f>
+        <v>194099.258811845</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <f aca="false">Q16/R9*100</f>
+        <v>167.362001949043</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
@@ -14527,6 +14548,10 @@
       <c r="B17" s="0" t="n">
         <v>48529</v>
       </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">POWER(B17-$R$9, 2)</f>
+        <v>4549057785.59353</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
@@ -14535,6 +14560,10 @@
       <c r="B18" s="0" t="n">
         <v>37084</v>
       </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">POWER(B18-$R$9, 2)</f>
+        <v>6223900849.05507</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
@@ -14543,6 +14572,10 @@
       <c r="B19" s="0" t="n">
         <v>87733</v>
       </c>
+      <c r="C19" s="0" t="n">
+        <f aca="false">POWER(B19-$R$9, 2)</f>
+        <v>797650289.505615</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
@@ -14551,6 +14584,10 @@
       <c r="B20" s="0" t="n">
         <v>317193</v>
       </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">POWER(B20-$R$9, 2)</f>
+        <v>40488400492.5825</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
@@ -14559,6 +14596,10 @@
       <c r="B21" s="0" t="n">
         <v>1034766</v>
       </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">POWER(B21-$R$9, 2)</f>
+        <v>844175609316.132</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
@@ -14567,6 +14608,10 @@
       <c r="B22" s="0" t="n">
         <v>1510469</v>
       </c>
+      <c r="C22" s="0" t="n">
+        <f aca="false">POWER(B22-$R$9, 2)</f>
+        <v>1944611554550.43</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
@@ -14575,6 +14620,10 @@
       <c r="B23" s="0" t="n">
         <v>404680</v>
       </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">POWER(B23-$R$9, 2)</f>
+        <v>83350170934.9452</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
@@ -14583,6 +14632,10 @@
       <c r="B24" s="0" t="n">
         <v>611934</v>
       </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">POWER(B24-$R$9, 2)</f>
+        <v>245974632068.835</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
@@ -14591,6 +14644,10 @@
       <c r="B25" s="0" t="n">
         <v>218928</v>
       </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">POWER(B25-$R$9, 2)</f>
+        <v>10599175396.4836</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
@@ -14599,6 +14656,10 @@
       <c r="B26" s="0" t="n">
         <v>34636</v>
       </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">POWER(B26-$R$9, 2)</f>
+        <v>6616147332.39573</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
@@ -14607,6 +14668,10 @@
       <c r="B27" s="0" t="n">
         <v>40837</v>
       </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">POWER(B27-$R$9, 2)</f>
+        <v>5645824733.11001</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
@@ -14615,6 +14680,10 @@
       <c r="B28" s="0" t="n">
         <v>60417</v>
       </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">POWER(B28-$R$9, 2)</f>
+        <v>3086769512.01111</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
@@ -14623,6 +14692,10 @@
       <c r="B29" s="0" t="n">
         <v>72945</v>
       </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">POWER(B29-$R$9, 2)</f>
+        <v>1851641426.20891</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
@@ -14631,6 +14704,10 @@
       <c r="B30" s="0" t="n">
         <v>78727</v>
       </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">POWER(B30-$R$9, 2)</f>
+        <v>1387465897.28584</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
@@ -14639,6 +14716,10 @@
       <c r="B31" s="0" t="n">
         <v>59729</v>
       </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">POWER(B31-$R$9, 2)</f>
+        <v>3163691631.74737</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
@@ -14647,6 +14728,10 @@
       <c r="B32" s="0" t="n">
         <v>59977</v>
       </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">POWER(B32-$R$9, 2)</f>
+        <v>3135854770.91221</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
@@ -14655,6 +14740,10 @@
       <c r="B33" s="0" t="n">
         <v>92731</v>
       </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">POWER(B33-$R$9, 2)</f>
+        <v>540316231.351769</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
@@ -14663,6 +14752,10 @@
       <c r="B34" s="0" t="n">
         <v>66756</v>
       </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">POWER(B34-$R$9, 2)</f>
+        <v>2422579192.61551</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
@@ -14671,6 +14764,10 @@
       <c r="B35" s="0" t="n">
         <v>42951</v>
       </c>
+      <c r="C35" s="0" t="n">
+        <f aca="false">POWER(B35-$R$9, 2)</f>
+        <v>5332607291.57155</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
@@ -14679,6 +14776,10 @@
       <c r="B36" s="0" t="n">
         <v>45758</v>
       </c>
+      <c r="C36" s="0" t="n">
+        <f aca="false">POWER(B36-$R$9, 2)</f>
+        <v>4930525856.26386</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
@@ -14687,6 +14788,10 @@
       <c r="B37" s="0" t="n">
         <v>54198</v>
       </c>
+      <c r="C37" s="0" t="n">
+        <f aca="false">POWER(B37-$R$9, 2)</f>
+        <v>3816484624.61551</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
@@ -14695,6 +14800,10 @@
       <c r="B38" s="0" t="n">
         <v>55087</v>
       </c>
+      <c r="C38" s="0" t="n">
+        <f aca="false">POWER(B38-$R$9, 2)</f>
+        <v>3707434189.15397</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
@@ -14703,6 +14812,10 @@
       <c r="B39" s="0" t="n">
         <v>54635</v>
       </c>
+      <c r="C39" s="0" t="n">
+        <f aca="false">POWER(B39-$R$9, 2)</f>
+        <v>3762681880.93419</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
@@ -14711,6 +14824,10 @@
       <c r="B40" s="0" t="n">
         <v>51045</v>
       </c>
+      <c r="C40" s="0" t="n">
+        <f aca="false">POWER(B40-$R$9, 2)</f>
+        <v>4215996230.60452</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
@@ -14719,6 +14836,10 @@
       <c r="B41" s="0" t="n">
         <v>50377</v>
       </c>
+      <c r="C41" s="0" t="n">
+        <f aca="false">POWER(B41-$R$9, 2)</f>
+        <v>4303189874.20891</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
@@ -14727,6 +14848,10 @@
       <c r="B42" s="0" t="n">
         <v>53302</v>
       </c>
+      <c r="C42" s="0" t="n">
+        <f aca="false">POWER(B42-$R$9, 2)</f>
+        <v>3927993084.9232</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
@@ -14735,6 +14860,10 @@
       <c r="B43" s="0" t="n">
         <v>55743</v>
       </c>
+      <c r="C43" s="0" t="n">
+        <f aca="false">POWER(B43-$R$9, 2)</f>
+        <v>3627978546.42869</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
@@ -14743,6 +14872,10 @@
       <c r="B44" s="0" t="n">
         <v>56562</v>
       </c>
+      <c r="C44" s="0" t="n">
+        <f aca="false">POWER(B44-$R$9, 2)</f>
+        <v>3529988139.42869</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
@@ -14751,6 +14884,10 @@
       <c r="B45" s="0" t="n">
         <v>56695</v>
       </c>
+      <c r="C45" s="0" t="n">
+        <f aca="false">POWER(B45-$R$9, 2)</f>
+        <v>3514201783.35177</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
@@ -14759,6 +14896,10 @@
       <c r="B46" s="0" t="n">
         <v>56620</v>
       </c>
+      <c r="C46" s="0" t="n">
+        <f aca="false">POWER(B46-$R$9, 2)</f>
+        <v>3523099513.84628</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
@@ -14767,6 +14908,10 @@
       <c r="B47" s="0" t="n">
         <v>70789</v>
       </c>
+      <c r="C47" s="0" t="n">
+        <f aca="false">POWER(B47-$R$9, 2)</f>
+        <v>2041838154.8243</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
@@ -14775,6 +14920,10 @@
       <c r="B48" s="0" t="n">
         <v>79744</v>
       </c>
+      <c r="C48" s="0" t="n">
+        <f aca="false">POWER(B48-$R$9, 2)</f>
+        <v>1312736323.78034</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="n">
@@ -14783,6 +14932,10 @@
       <c r="B49" s="0" t="n">
         <v>81653</v>
       </c>
+      <c r="C49" s="0" t="n">
+        <f aca="false">POWER(B49-$R$9, 2)</f>
+        <v>1178047961.59353</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
@@ -14791,6 +14944,10 @@
       <c r="B50" s="0" t="n">
         <v>157009</v>
       </c>
+      <c r="C50" s="0" t="n">
+        <f aca="false">POWER(B50-$R$9, 2)</f>
+        <v>1683731438.34078</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
@@ -14799,6 +14956,10 @@
       <c r="B51" s="0" t="n">
         <v>66964</v>
       </c>
+      <c r="C51" s="0" t="n">
+        <f aca="false">POWER(B51-$R$9, 2)</f>
+        <v>2402147060.04408</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
@@ -14807,6 +14968,10 @@
       <c r="B52" s="0" t="n">
         <v>104893</v>
       </c>
+      <c r="C52" s="0" t="n">
+        <f aca="false">POWER(B52-$R$9, 2)</f>
+        <v>122826312.362758</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
@@ -14815,6 +14980,10 @@
       <c r="B53" s="0" t="n">
         <v>205464</v>
       </c>
+      <c r="C53" s="0" t="n">
+        <f aca="false">POWER(B53-$R$9, 2)</f>
+        <v>8008155246.85726</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
@@ -14823,6 +14992,10 @@
       <c r="B54" s="0" t="n">
         <v>30791</v>
       </c>
+      <c r="C54" s="0" t="n">
+        <f aca="false">POWER(B54-$R$9, 2)</f>
+        <v>7256433675.74738</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
@@ -14831,6 +15004,10 @@
       <c r="B55" s="0" t="n">
         <v>31955</v>
       </c>
+      <c r="C55" s="0" t="n">
+        <f aca="false">POWER(B55-$R$9, 2)</f>
+        <v>7059478582.47265</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
@@ -14839,6 +15016,10 @@
       <c r="B56" s="0" t="n">
         <v>42631</v>
       </c>
+      <c r="C56" s="0" t="n">
+        <f aca="false">POWER(B56-$R$9, 2)</f>
+        <v>5379445501.68144</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="n">
@@ -14847,6 +15028,10 @@
       <c r="B57" s="0" t="n">
         <v>64051</v>
       </c>
+      <c r="C57" s="0" t="n">
+        <f aca="false">POWER(B57-$R$9, 2)</f>
+        <v>2696174812.45067</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="n">
@@ -14855,6 +15040,10 @@
       <c r="B58" s="0" t="n">
         <v>75999</v>
       </c>
+      <c r="C58" s="0" t="n">
+        <f aca="false">POWER(B58-$R$9, 2)</f>
+        <v>1598136806.47265</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
@@ -14863,6 +15052,10 @@
       <c r="B59" s="0" t="n">
         <v>78422</v>
       </c>
+      <c r="C59" s="0" t="n">
+        <f aca="false">POWER(B59-$R$9, 2)</f>
+        <v>1410280631.29682</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
@@ -14871,6 +15064,10 @@
       <c r="B60" s="0" t="n">
         <v>96816</v>
       </c>
+      <c r="C60" s="0" t="n">
+        <f aca="false">POWER(B60-$R$9, 2)</f>
+        <v>367094230.417703</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="n">
@@ -14879,6 +15076,10 @@
       <c r="B61" s="0" t="n">
         <v>215639</v>
       </c>
+      <c r="C61" s="0" t="n">
+        <f aca="false">POWER(B61-$R$9, 2)</f>
+        <v>9932772709.76935</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
@@ -14887,6 +15088,10 @@
       <c r="B62" s="0" t="n">
         <v>64657</v>
       </c>
+      <c r="C62" s="0" t="n">
+        <f aca="false">POWER(B62-$R$9, 2)</f>
+        <v>2633609308.05507</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="n">
@@ -14895,6 +15100,10 @@
       <c r="B63" s="0" t="n">
         <v>63719</v>
       </c>
+      <c r="C63" s="0" t="n">
+        <f aca="false">POWER(B63-$R$9, 2)</f>
+        <v>2730763039.43968</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
@@ -14903,6 +15112,10 @@
       <c r="B64" s="0" t="n">
         <v>119709</v>
       </c>
+      <c r="C64" s="0" t="n">
+        <f aca="false">POWER(B64-$R$9, 2)</f>
+        <v>13937504.274846</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
@@ -14911,6 +15124,10 @@
       <c r="B65" s="0" t="n">
         <v>292666</v>
       </c>
+      <c r="C65" s="0" t="n">
+        <f aca="false">POWER(B65-$R$9, 2)</f>
+        <v>31219460949.099</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
@@ -14919,6 +15136,10 @@
       <c r="B66" s="0" t="n">
         <v>73070</v>
       </c>
+      <c r="C66" s="0" t="n">
+        <f aca="false">POWER(B66-$R$9, 2)</f>
+        <v>1840899375.38474</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
@@ -14927,6 +15148,10 @@
       <c r="B67" s="0" t="n">
         <v>64266</v>
       </c>
+      <c r="C67" s="0" t="n">
+        <f aca="false">POWER(B67-$R$9, 2)</f>
+        <v>2673893415.03309</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
@@ -14935,6 +15160,10 @@
       <c r="B68" s="0" t="n">
         <v>58530</v>
       </c>
+      <c r="C68" s="0" t="n">
+        <f aca="false">POWER(B68-$R$9, 2)</f>
+        <v>3300008827.25287</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
@@ -14943,6 +15172,10 @@
       <c r="B69" s="0" t="n">
         <v>51855</v>
       </c>
+      <c r="C69" s="0" t="n">
+        <f aca="false">POWER(B69-$R$9, 2)</f>
+        <v>4111464591.26386</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
@@ -14951,6 +15184,10 @@
       <c r="B70" s="0" t="n">
         <v>39426</v>
       </c>
+      <c r="C70" s="0" t="n">
+        <f aca="false">POWER(B70-$R$9, 2)</f>
+        <v>5859857074.81331</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
@@ -14959,6 +15196,10 @@
       <c r="B71" s="0" t="n">
         <v>36731</v>
       </c>
+      <c r="C71" s="0" t="n">
+        <f aca="false">POWER(B71-$R$9, 2)</f>
+        <v>6279723000.58254</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
@@ -14967,6 +15208,10 @@
       <c r="B72" s="0" t="n">
         <v>45507</v>
       </c>
+      <c r="C72" s="0" t="n">
+        <f aca="false">POWER(B72-$R$9, 2)</f>
+        <v>4965838144.3188</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
@@ -14975,6 +15220,10 @@
       <c r="B73" s="0" t="n">
         <v>68918</v>
       </c>
+      <c r="C73" s="0" t="n">
+        <f aca="false">POWER(B73-$R$9, 2)</f>
+        <v>2214427439.56056</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
@@ -14983,6 +15232,10 @@
       <c r="B74" s="0" t="n">
         <v>65299</v>
       </c>
+      <c r="C74" s="0" t="n">
+        <f aca="false">POWER(B74-$R$9, 2)</f>
+        <v>2568128257.0221</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
@@ -14991,6 +15244,10 @@
       <c r="B75" s="0" t="n">
         <v>61377</v>
       </c>
+      <c r="C75" s="0" t="n">
+        <f aca="false">POWER(B75-$R$9, 2)</f>
+        <v>2981018401.68144</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="n">
@@ -14999,6 +15256,10 @@
       <c r="B76" s="0" t="n">
         <v>62416</v>
       </c>
+      <c r="C76" s="0" t="n">
+        <f aca="false">POWER(B76-$R$9, 2)</f>
+        <v>2868641817.23089</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
@@ -15007,6 +15268,10 @@
       <c r="B77" s="0" t="n">
         <v>63985</v>
       </c>
+      <c r="C77" s="0" t="n">
+        <f aca="false">POWER(B77-$R$9, 2)</f>
+        <v>2703033229.28584</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
@@ -15015,6 +15280,10 @@
       <c r="B78" s="0" t="n">
         <v>66049</v>
       </c>
+      <c r="C78" s="0" t="n">
+        <f aca="false">POWER(B78-$R$9, 2)</f>
+        <v>2492675702.07704</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
@@ -15023,6 +15292,10 @@
       <c r="B79" s="0" t="n">
         <v>76632</v>
       </c>
+      <c r="C79" s="0" t="n">
+        <f aca="false">POWER(B79-$R$9, 2)</f>
+        <v>1547926989.09902</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
@@ -15031,6 +15304,10 @@
       <c r="B80" s="0" t="n">
         <v>70505</v>
       </c>
+      <c r="C80" s="0" t="n">
+        <f aca="false">POWER(B80-$R$9, 2)</f>
+        <v>2067584858.29682</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
@@ -15039,6 +15316,10 @@
       <c r="B81" s="0" t="n">
         <v>74453</v>
       </c>
+      <c r="C81" s="0" t="n">
+        <f aca="false">POWER(B81-$R$9, 2)</f>
+        <v>1724134889.06606</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
@@ -15047,6 +15328,10 @@
       <c r="B82" s="0" t="n">
         <v>86413</v>
       </c>
+      <c r="C82" s="0" t="n">
+        <f aca="false">POWER(B82-$R$9, 2)</f>
+        <v>873953426.208912</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
@@ -15055,6 +15340,10 @@
       <c r="B83" s="0" t="n">
         <v>113001</v>
       </c>
+      <c r="C83" s="0" t="n">
+        <f aca="false">POWER(B83-$R$9, 2)</f>
+        <v>8848859.70341749</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
@@ -15063,6 +15352,10 @@
       <c r="B84" s="0" t="n">
         <v>96973</v>
       </c>
+      <c r="C84" s="0" t="n">
+        <f aca="false">POWER(B84-$R$9, 2)</f>
+        <v>361102732.582538</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
@@ -15071,6 +15364,10 @@
       <c r="B85" s="0" t="n">
         <v>73783</v>
       </c>
+      <c r="C85" s="0" t="n">
+        <f aca="false">POWER(B85-$R$9, 2)</f>
+        <v>1780224211.48364</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
@@ -15079,6 +15376,10 @@
       <c r="B86" s="0" t="n">
         <v>73715</v>
       </c>
+      <c r="C86" s="0" t="n">
+        <f aca="false">POWER(B86-$R$9, 2)</f>
+        <v>1785967043.13199</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
@@ -15087,6 +15388,10 @@
       <c r="B87" s="0" t="n">
         <v>102548</v>
       </c>
+      <c r="C87" s="0" t="n">
+        <f aca="false">POWER(B87-$R$9, 2)</f>
+        <v>180303215.824297</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
@@ -15095,6 +15400,10 @@
       <c r="B88" s="0" t="n">
         <v>103740</v>
       </c>
+      <c r="C88" s="0" t="n">
+        <f aca="false">POWER(B88-$R$9, 2)</f>
+        <v>149712435.164956</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
@@ -15103,6 +15412,10 @@
       <c r="B89" s="0" t="n">
         <v>78395</v>
       </c>
+      <c r="C89" s="0" t="n">
+        <f aca="false">POWER(B89-$R$9, 2)</f>
+        <v>1412309260.27485</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
@@ -15111,6 +15424,10 @@
       <c r="B90" s="0" t="n">
         <v>72980</v>
       </c>
+      <c r="C90" s="0" t="n">
+        <f aca="false">POWER(B90-$R$9, 2)</f>
+        <v>1848630501.97814</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
@@ -15119,6 +15436,10 @@
       <c r="B91" s="0" t="n">
         <v>82458</v>
       </c>
+      <c r="C91" s="0" t="n">
+        <f aca="false">POWER(B91-$R$9, 2)</f>
+        <v>1123436434.28584</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
@@ -15127,6 +15448,10 @@
       <c r="B92" s="0" t="n">
         <v>76597</v>
       </c>
+      <c r="C92" s="0" t="n">
+        <f aca="false">POWER(B92-$R$9, 2)</f>
+        <v>1550682273.32979</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="n">
@@ -15135,6 +15460,10 @@
       <c r="B93" s="0" t="n">
         <v>77845</v>
       </c>
+      <c r="C93" s="0" t="n">
+        <f aca="false">POWER(B93-$R$9, 2)</f>
+        <v>1453950533.90122</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
@@ -15143,6 +15472,10 @@
       <c r="B94" s="0" t="n">
         <v>84193</v>
       </c>
+      <c r="C94" s="0" t="n">
+        <f aca="false">POWER(B94-$R$9, 2)</f>
+        <v>1010140228.84627</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
@@ -15151,6 +15484,10 @@
       <c r="B95" s="0" t="n">
         <v>84390</v>
       </c>
+      <c r="C95" s="0" t="n">
+        <f aca="false">POWER(B95-$R$9, 2)</f>
+        <v>997656652.747374</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
@@ -15159,6 +15496,10 @@
       <c r="B96" s="0" t="n">
         <v>75856</v>
       </c>
+      <c r="C96" s="0" t="n">
+        <f aca="false">POWER(B96-$R$9, 2)</f>
+        <v>1609590592.61551</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
@@ -15167,6 +15508,10 @@
       <c r="B97" s="0" t="n">
         <v>83481</v>
       </c>
+      <c r="C97" s="0" t="n">
+        <f aca="false">POWER(B97-$R$9, 2)</f>
+        <v>1055905742.34078</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
@@ -15175,6 +15520,10 @@
       <c r="B98" s="0" t="n">
         <v>86099</v>
       </c>
+      <c r="C98" s="0" t="n">
+        <f aca="false">POWER(B98-$R$9, 2)</f>
+        <v>892617399.879242</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
@@ -15183,6 +15532,10 @@
       <c r="B99" s="0" t="n">
         <v>86161</v>
       </c>
+      <c r="C99" s="0" t="n">
+        <f aca="false">POWER(B99-$R$9, 2)</f>
+        <v>888916532.670451</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="n">
@@ -15191,6 +15544,10 @@
       <c r="B100" s="0" t="n">
         <v>82985</v>
       </c>
+      <c r="C100" s="0" t="n">
+        <f aca="false">POWER(B100-$R$9, 2)</f>
+        <v>1088386504.01111</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="n">
@@ -15199,6 +15556,10 @@
       <c r="B101" s="0" t="n">
         <v>83843</v>
       </c>
+      <c r="C101" s="0" t="n">
+        <f aca="false">POWER(B101-$R$9, 2)</f>
+        <v>1032510621.15397</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
@@ -15207,6 +15568,10 @@
       <c r="B102" s="0" t="n">
         <v>85094</v>
       </c>
+      <c r="C102" s="0" t="n">
+        <f aca="false">POWER(B102-$R$9, 2)</f>
+        <v>953679598.505616</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="n">
@@ -15215,6 +15580,10 @@
       <c r="B103" s="0" t="n">
         <v>82906</v>
       </c>
+      <c r="C103" s="0" t="n">
+        <f aca="false">POWER(B103-$R$9, 2)</f>
+        <v>1093605276.13199</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
@@ -15223,6 +15592,10 @@
       <c r="B104" s="0" t="n">
         <v>77085</v>
       </c>
+      <c r="C104" s="0" t="n">
+        <f aca="false">POWER(B104-$R$9, 2)</f>
+        <v>1512486802.91221</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="n">
@@ -15231,6 +15604,10 @@
       <c r="B105" s="0" t="n">
         <v>80747</v>
       </c>
+      <c r="C105" s="0" t="n">
+        <f aca="false">POWER(B105-$R$9, 2)</f>
+        <v>1241061535.96715</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="n">
@@ -15238,6 +15615,10 @@
       </c>
       <c r="B106" s="0" t="n">
         <v>87925</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <f aca="false">POWER(B106-$R$9, 2)</f>
+        <v>786841955.439681</v>
       </c>
     </row>
   </sheetData>
@@ -15259,7 +15640,7 @@
   </sheetPr>
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q29" activeCellId="0" sqref="Q29"/>
     </sheetView>
   </sheetViews>
@@ -15275,7 +15656,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15407,7 +15788,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16158,7 +16539,7 @@
   <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J61" activeCellId="0" sqref="J61"/>
+      <selection pane="topLeft" activeCell="S5" activeCellId="0" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16173,7 +16554,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16305,7 +16686,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17072,7 +17453,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17190,7 +17571,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
